--- a/Sufficient data WITH_PO/B07GBM3M88_Optuna_PO_Forecast.xlsx
+++ b/Sufficient data WITH_PO/B07GBM3M88_Optuna_PO_Forecast.xlsx
@@ -454,7 +454,7 @@
         <v>45214.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>45235.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>45263.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>45270.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>45277.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>45305.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>45312.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>45319.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>45333.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>45340.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>45347.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>45354.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>45361.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>45466.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>45494.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -574,7 +574,7 @@
         <v>45501.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>45508.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>45515.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>45522.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>45529.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +614,7 @@
         <v>45536.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>45543.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>45550.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>45557.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -646,7 +646,7 @@
         <v>45564.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
@@ -654,7 +654,7 @@
         <v>45571.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
